--- a/docs/HCD/ADS-Usability Test-Metrics_final.xlsx
+++ b/docs/HCD/ADS-Usability Test-Metrics_final.xlsx
@@ -5,23 +5,22 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rhazelbaker\Documents\GitHub\18f-prototype\docs\HCD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rhazelbaker\Documents\GitHub\18f-prototype\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7340"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7340" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint Usability Test " sheetId="1" r:id="rId1"/>
     <sheet name="Stabilization Usability Test" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="101">
   <si>
     <t>Completion Rate (Did complete all 3 scenarios?)</t>
   </si>
@@ -74,31 +73,10 @@
     <t>"What does top 20 symptoms even mean?  Is it the best symptoms?"</t>
   </si>
   <si>
-    <t xml:space="preserve">Matt had no trouble finding scenario 1 data. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">In Scenario 3, Matt noted he didn't feel the app did a good enough job of aggregating the data for his search. He would have to view reports to fully understand the issues. He also noted that the reports seemed to be incomplete. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">In Scenario 4, Matt noted that the most likely symptom was a word he wasn't familiar with. He noted he would like to see something that details the symptom.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">In Scenario 2, Chris was disappointed that when entering one drug, then entering the second, the "tab" key selected the remove icon instead of going to the next form field. Matt also discovered that when accidentally tabbing once, then attempting to "execute" the search with the enter key, it actually deletes the current form field. Also, he noted the icons were absent on the form buttons. </t>
-  </si>
-  <si>
-    <t>In Scenario 3, Laukii noted that the data graph associated with didn't appear to be enough. She thought it needed "more graphs or charts". When inquired as to why, she noted "I'm not sure, but what's here now is a little intimidating since I'm not familiar with drugs as a whole."</t>
-  </si>
-  <si>
     <t>2:30:00 AM DNF</t>
   </si>
   <si>
     <t>3:00:00 AM DNF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Before Scenario 1 began, Lee noted that the app seemed to be incomplete. When I inquired as to why, she noted that the instructions were not actual text. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">In Scenario 4, Lee entered the proper information, but was unable to discover the form field for "select adverse event" on the bottom. After a little bit of staring at the screen, she said, "I'm still not sure." and the test stopped. </t>
   </si>
   <si>
     <t>Medical Professional/ Consumer</t>
@@ -283,12 +261,6 @@
   </si>
   <si>
     <t>2 yrs. of College</t>
-  </si>
-  <si>
-    <t>"What's up with the instructions text?"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In Scenario 3, Lee attempted to click "source" when looking for more detailed information on Prilosec. When she was taken to github, she was confused and only continued when I prompted her to hit the back button. At that point, she said "I'm not sure." and the test stopped. </t>
   </si>
   <si>
     <t>Note: Test occurred in public environment with distractions</t>
@@ -842,7 +814,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="J5" sqref="J5"/>
     </sheetView>
@@ -870,19 +842,19 @@
   <sheetData>
     <row r="1" spans="1:29" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>0</v>
@@ -941,7 +913,7 @@
     </row>
     <row r="2" spans="1:29" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="27" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B2" s="26"/>
       <c r="C2" s="17"/>
@@ -949,7 +921,7 @@
       <c r="E2" s="17"/>
       <c r="F2" s="5"/>
       <c r="G2" s="24" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="H2" s="25"/>
       <c r="I2" s="26"/>
@@ -968,19 +940,19 @@
     </row>
     <row r="3" spans="1:29" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C3" s="18">
         <v>36</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="F3" s="9">
         <v>1</v>
@@ -1007,25 +979,25 @@
         <v>2</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="P3" s="6"/>
     </row>
     <row r="4" spans="1:29" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C4" s="18">
         <v>15</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="F4" s="9">
         <v>1</v>
@@ -1052,25 +1024,25 @@
         <v>2</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="P4" s="6"/>
     </row>
     <row r="5" spans="1:29" ht="51.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C5" s="18">
         <v>39</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="F5" s="9">
         <v>1</v>
@@ -1097,25 +1069,25 @@
         <v>2</v>
       </c>
       <c r="N5" s="6" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="P5" s="6"/>
     </row>
     <row r="6" spans="1:29" ht="71" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C6" s="18">
         <v>50</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="F6" s="9">
         <v>1</v>
@@ -1140,26 +1112,26 @@
       </c>
       <c r="M6" s="12"/>
       <c r="N6" s="6" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
     </row>
     <row r="7" spans="1:29" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C7" s="18">
         <v>54</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="F7" s="9">
         <v>0.66</v>
@@ -1186,18 +1158,18 @@
         <v>3</v>
       </c>
       <c r="N7" s="6" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="O7" s="6" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="P7" s="6" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:29" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="28" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B8" s="26"/>
       <c r="F8" s="12"/>
@@ -1214,19 +1186,19 @@
     </row>
     <row r="9" spans="1:29" ht="93" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C9" s="20">
         <v>25</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="F9" s="14">
         <v>0.75</v>
@@ -1259,32 +1231,32 @@
         <v>4</v>
       </c>
       <c r="P9" s="6" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="Q9" s="6" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="R9" s="6" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="S9" s="8"/>
       <c r="T9" s="8"/>
     </row>
     <row r="10" spans="1:29" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C10" s="20">
         <v>25</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="F10" s="14">
         <v>1</v>
@@ -1320,33 +1292,33 @@
         <v>16</v>
       </c>
       <c r="Q10" s="6" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="R10" s="6" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="S10" s="6" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="T10" s="6" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:29" ht="93.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C11" s="20">
         <v>28</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F11" s="14">
         <v>1</v>
@@ -1379,10 +1351,10 @@
         <v>3</v>
       </c>
       <c r="P11" s="6" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="Q11" s="6" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="R11" s="8"/>
       <c r="S11" s="8"/>
@@ -1390,19 +1362,19 @@
     </row>
     <row r="12" spans="1:29" ht="89.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C12" s="20">
         <v>25</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="F12" s="14">
         <v>1</v>
@@ -1435,7 +1407,7 @@
         <v>3</v>
       </c>
       <c r="P12" s="6" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="Q12" s="8"/>
       <c r="R12" s="8"/>
@@ -1444,19 +1416,19 @@
     </row>
     <row r="13" spans="1:29" ht="80" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C13" s="20">
         <v>55</v>
       </c>
       <c r="D13" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="18" t="s">
         <v>31</v>
-      </c>
-      <c r="E13" s="18" t="s">
-        <v>38</v>
       </c>
       <c r="F13" s="14">
         <v>0.5</v>
@@ -1468,10 +1440,10 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="I13" s="16" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="J13" s="16" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="K13" s="16">
         <v>4</v>
@@ -1485,20 +1457,20 @@
       <c r="N13" s="8"/>
       <c r="O13" s="8"/>
       <c r="P13" s="6" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="Q13" s="6" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="R13" s="6" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="S13" s="8"/>
       <c r="T13" s="8"/>
     </row>
     <row r="14" spans="1:29" ht="25" x14ac:dyDescent="0.25">
       <c r="I14" s="6" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.25">
@@ -1545,7 +1517,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
@@ -1570,25 +1542,25 @@
         <v>9</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>8</v>
@@ -1614,19 +1586,19 @@
     </row>
     <row r="2" spans="1:15" ht="50" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C2" s="19">
         <v>43</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="F2" s="23">
         <v>1</v>
@@ -1638,27 +1610,27 @@
         <v>1</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="J2" s="21" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C3" s="19">
         <v>55</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="F3" s="23">
         <v>1</v>
@@ -1670,68 +1642,68 @@
         <v>1</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C4" s="19">
         <v>57</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E4" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="23">
+        <v>1</v>
+      </c>
+      <c r="G4" s="23">
+        <v>1</v>
+      </c>
+      <c r="H4" s="23">
+        <v>1</v>
+      </c>
+      <c r="I4" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="J4" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="23">
-        <v>1</v>
-      </c>
-      <c r="G4" s="23">
-        <v>1</v>
-      </c>
-      <c r="H4" s="23">
-        <v>1</v>
-      </c>
-      <c r="I4" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="J4" s="21" t="s">
-        <v>44</v>
-      </c>
       <c r="K4" s="21" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="L4" s="21" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="M4" s="21" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="N4" s="21" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="25" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="F5" s="23">
         <v>1</v>
@@ -1743,33 +1715,33 @@
         <v>1</v>
       </c>
       <c r="I5" s="21" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="J5" s="21" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="K5" s="21" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="25" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="F6" s="23">
         <v>1</v>
@@ -1781,24 +1753,24 @@
         <v>1</v>
       </c>
       <c r="I6" s="21" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="50" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C7" s="19">
         <v>47</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="F7" s="23">
         <v>1</v>
@@ -1810,27 +1782,27 @@
         <v>1</v>
       </c>
       <c r="I7" s="21" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="J7" s="21" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C8" s="19">
         <v>45</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="F8" s="23">
         <v>1</v>
@@ -1842,16 +1814,16 @@
         <v>1</v>
       </c>
       <c r="I8" s="21" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="J8" s="21" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="K8" s="21" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="L8" s="21" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
